--- a/grupos/1BV - Estadisticos 20211.xlsx
+++ b/grupos/1BV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="184">
   <si>
     <t>Materia</t>
   </si>
@@ -215,19 +215,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
+    <t>Bautista Sarao Eutiquio</t>
+  </si>
+  <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
     <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Francisco</t>
-  </si>
-  <si>
-    <t>Bautista Sarao Eutiquio</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
     <t>Pesce Bautista Victor Manuel</t>
@@ -1058,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -1067,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -1112,7 +1112,7 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U4">
         <v>-1</v>
@@ -1121,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -1189,7 +1189,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>8</v>
@@ -1212,16 +1212,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1266,16 +1266,16 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V6">
         <v>6</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X6">
         <v>10</v>
@@ -1298,7 +1298,7 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1352,7 +1352,7 @@
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X7">
         <v>6</v>
@@ -1443,16 +1443,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -1497,16 +1497,16 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V9">
         <v>8</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X9">
         <v>9</v>
@@ -1520,16 +1520,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1574,16 +1574,16 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V10">
         <v>8</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X10">
         <v>9</v>
@@ -1597,7 +1597,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1651,7 +1651,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U11">
         <v>-1</v>
@@ -1674,7 +1674,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1728,7 +1728,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -1814,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X13">
         <v>7</v>
@@ -1831,13 +1831,13 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -1885,13 +1885,13 @@
         <v>-1</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V14">
         <v>6</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X14">
         <v>8</v>
@@ -2059,16 +2059,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2113,16 +2113,16 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V17">
         <v>6</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X17">
         <v>10</v>
@@ -2136,16 +2136,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -2190,16 +2190,16 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V18">
         <v>7</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X18">
         <v>7</v>
@@ -2213,16 +2213,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2267,16 +2267,16 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V19">
         <v>9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X19">
         <v>10</v>
@@ -2367,16 +2367,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2421,16 +2421,16 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V21">
         <v>8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X21">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -2498,7 +2498,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U22">
         <v>-1</v>
@@ -2521,7 +2521,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -2530,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -2575,7 +2575,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U23">
         <v>-1</v>
@@ -2584,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X23">
         <v>7</v>
@@ -2598,16 +2598,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -2652,16 +2652,16 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V24">
         <v>8</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X24">
         <v>10</v>
@@ -2675,7 +2675,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -2684,7 +2684,7 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2729,7 +2729,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U25">
         <v>-1</v>
@@ -2738,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X25">
         <v>8</v>
@@ -2752,16 +2752,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -2806,16 +2806,16 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V26">
         <v>6</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X26">
         <v>9</v>
@@ -2829,16 +2829,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2883,16 +2883,16 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <v>8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X27">
         <v>10</v>
@@ -2906,7 +2906,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -2915,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -2960,7 +2960,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U28">
         <v>-1</v>
@@ -2969,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X28">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         <v>-1</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>9</v>
@@ -3123,7 +3123,7 @@
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X30">
         <v>9</v>
@@ -3137,7 +3137,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -3146,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -3191,7 +3191,7 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U31">
         <v>-1</v>
@@ -3200,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X31">
         <v>9</v>
@@ -3214,16 +3214,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -3268,16 +3268,16 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V32">
         <v>8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X32">
         <v>10</v>
@@ -3291,7 +3291,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -3300,7 +3300,7 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -3345,7 +3345,7 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U33">
         <v>-1</v>
@@ -3354,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X33">
         <v>10</v>
@@ -3368,16 +3368,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>9</v>
@@ -3422,16 +3422,16 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V34">
         <v>6</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X34">
         <v>9</v>
@@ -3445,7 +3445,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -3454,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <v>9</v>
@@ -3499,7 +3499,7 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U35">
         <v>-1</v>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X35">
         <v>9</v>
@@ -3599,16 +3599,16 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -3653,16 +3653,16 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V37">
         <v>7</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X37">
         <v>10</v>
@@ -3753,16 +3753,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>7</v>
       </c>
       <c r="E39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>9</v>
@@ -3807,16 +3807,16 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V39">
         <v>7</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X39">
         <v>9</v>
@@ -3907,16 +3907,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3961,16 +3961,16 @@
         <v>-1</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V41">
         <v>7</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X41">
         <v>10</v>
@@ -3984,7 +3984,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -3993,7 +3993,7 @@
         <v>-1</v>
       </c>
       <c r="E42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -4038,7 +4038,7 @@
         <v>-1</v>
       </c>
       <c r="T42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U42">
         <v>-1</v>
@@ -4047,7 +4047,7 @@
         <v>-1</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X42">
         <v>7</v>
@@ -4061,16 +4061,16 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>7</v>
       </c>
       <c r="E43">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -4115,16 +4115,16 @@
         <v>-1</v>
       </c>
       <c r="T43">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U43">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V43">
         <v>7</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X43">
         <v>10</v>
@@ -4138,16 +4138,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -4192,16 +4192,16 @@
         <v>-1</v>
       </c>
       <c r="T44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U44">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V44">
         <v>7</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X44">
         <v>10</v>
@@ -4292,7 +4292,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>-1</v>
@@ -4346,7 +4346,7 @@
         <v>-1</v>
       </c>
       <c r="T46">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U46">
         <v>-1</v>
@@ -4369,7 +4369,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>-1</v>
@@ -4423,7 +4423,7 @@
         <v>-1</v>
       </c>
       <c r="T47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U47">
         <v>-1</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -4506,27 +4506,30 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>40.91</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
+      </c>
       <c r="I2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -4535,27 +4538,30 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>8.5</v>
+      </c>
       <c r="I3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -4564,27 +4570,30 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>9.5</v>
+      </c>
       <c r="I4">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -4593,30 +4602,30 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>68.18000000000001</v>
+        <v>70.45</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>31.82</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -4637,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="I6">
         <v>13</v>
@@ -4732,7 +4741,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4752,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4772,7 +4781,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4792,7 +4801,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4812,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4852,7 +4861,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4872,7 +4881,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4892,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4912,7 +4921,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4932,7 +4941,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4972,7 +4981,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4992,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5012,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5032,7 +5041,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5052,7 +5061,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5092,7 +5101,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5112,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5132,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5152,7 +5161,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5172,7 +5181,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5212,7 +5221,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5232,7 +5241,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5252,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5272,7 +5281,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5292,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5332,7 +5341,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5352,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5372,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5392,7 +5401,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5412,7 +5421,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5452,7 +5461,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5472,7 +5481,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5492,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5512,7 +5521,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5532,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5572,7 +5581,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5592,7 +5601,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5612,7 +5621,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5632,7 +5641,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5652,7 +5661,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5692,7 +5701,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5712,7 +5721,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5732,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5752,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5772,7 +5781,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5812,7 +5821,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5832,7 +5841,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5852,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5872,7 +5881,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5892,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5932,7 +5941,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5952,7 +5961,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5972,7 +5981,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5992,7 +6001,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6012,7 +6021,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6052,7 +6061,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6072,7 +6081,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6092,7 +6101,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6112,7 +6121,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6132,7 +6141,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6172,7 +6181,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6192,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6212,7 +6221,7 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6232,7 +6241,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6252,7 +6261,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6292,7 +6301,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6312,7 +6321,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6332,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6352,7 +6361,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6372,7 +6381,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6412,7 +6421,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6432,7 +6441,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6452,7 +6461,7 @@
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6472,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6492,7 +6501,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6532,7 +6541,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6552,7 +6561,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6572,7 +6581,7 @@
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6592,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6612,7 +6621,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6652,7 +6661,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6672,7 +6681,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6692,7 +6701,7 @@
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6712,7 +6721,7 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6732,7 +6741,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6772,7 +6781,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6792,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6812,7 +6821,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6832,7 +6841,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6852,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6892,7 +6901,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6912,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6932,7 +6941,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6952,7 +6961,7 @@
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6972,7 +6981,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7012,7 +7021,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7032,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7052,7 +7061,7 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7072,7 +7081,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7092,7 +7101,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7132,7 +7141,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7152,7 +7161,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7172,7 +7181,7 @@
         <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7192,7 +7201,7 @@
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7212,7 +7221,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7252,7 +7261,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7272,7 +7281,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7292,7 +7301,7 @@
         <v>5</v>
       </c>
       <c r="F130" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7312,7 +7321,7 @@
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7332,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7372,7 +7381,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7392,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7412,7 +7421,7 @@
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7432,7 +7441,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7452,7 +7461,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7492,7 +7501,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7512,7 +7521,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7532,7 +7541,7 @@
         <v>5</v>
       </c>
       <c r="F142" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7552,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7572,7 +7581,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7612,7 +7621,7 @@
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7632,7 +7641,7 @@
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7652,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="F148" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7672,7 +7681,7 @@
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7692,7 +7701,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7732,7 +7741,7 @@
         <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7752,7 +7761,7 @@
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7772,7 +7781,7 @@
         <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7792,7 +7801,7 @@
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7812,7 +7821,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7852,7 +7861,7 @@
         <v>8</v>
       </c>
       <c r="F158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7872,7 +7881,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7892,7 +7901,7 @@
         <v>5</v>
       </c>
       <c r="F160" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7912,7 +7921,7 @@
         <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7932,7 +7941,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7972,7 +7981,7 @@
         <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7992,7 +8001,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -8012,7 +8021,7 @@
         <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -8032,7 +8041,7 @@
         <v>6</v>
       </c>
       <c r="F167" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -8052,7 +8061,7 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -8092,7 +8101,7 @@
         <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -8112,7 +8121,7 @@
         <v>7</v>
       </c>
       <c r="F171" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -8132,7 +8141,7 @@
         <v>5</v>
       </c>
       <c r="F172" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8152,7 +8161,7 @@
         <v>6</v>
       </c>
       <c r="F173" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8172,7 +8181,7 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8212,7 +8221,7 @@
         <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8232,7 +8241,7 @@
         <v>7</v>
       </c>
       <c r="F177" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -8252,7 +8261,7 @@
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8272,7 +8281,7 @@
         <v>6</v>
       </c>
       <c r="F179" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8292,7 +8301,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8332,7 +8341,7 @@
         <v>8</v>
       </c>
       <c r="F182" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8352,7 +8361,7 @@
         <v>7</v>
       </c>
       <c r="F183" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8372,7 +8381,7 @@
         <v>5</v>
       </c>
       <c r="F184" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8392,7 +8401,7 @@
         <v>6</v>
       </c>
       <c r="F185" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8412,7 +8421,7 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8452,7 +8461,7 @@
         <v>8</v>
       </c>
       <c r="F188" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8472,7 +8481,7 @@
         <v>7</v>
       </c>
       <c r="F189" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8492,7 +8501,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -8512,7 +8521,7 @@
         <v>6</v>
       </c>
       <c r="F191" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -8532,7 +8541,7 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8572,7 +8581,7 @@
         <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8592,7 +8601,7 @@
         <v>7</v>
       </c>
       <c r="F195" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8612,7 +8621,7 @@
         <v>5</v>
       </c>
       <c r="F196" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8632,7 +8641,7 @@
         <v>6</v>
       </c>
       <c r="F197" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8652,7 +8661,7 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8692,7 +8701,7 @@
         <v>8</v>
       </c>
       <c r="F200" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8712,7 +8721,7 @@
         <v>7</v>
       </c>
       <c r="F201" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8732,7 +8741,7 @@
         <v>5</v>
       </c>
       <c r="F202" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8752,7 +8761,7 @@
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8772,7 +8781,7 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8812,7 +8821,7 @@
         <v>8</v>
       </c>
       <c r="F206" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8832,7 +8841,7 @@
         <v>7</v>
       </c>
       <c r="F207" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8852,7 +8861,7 @@
         <v>5</v>
       </c>
       <c r="F208" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8872,7 +8881,7 @@
         <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8892,7 +8901,7 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8932,7 +8941,7 @@
         <v>8</v>
       </c>
       <c r="F212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8952,7 +8961,7 @@
         <v>7</v>
       </c>
       <c r="F213" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8972,7 +8981,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8992,7 +9001,7 @@
         <v>6</v>
       </c>
       <c r="F215" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -9012,7 +9021,7 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -9052,7 +9061,7 @@
         <v>8</v>
       </c>
       <c r="F218" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -9072,7 +9081,7 @@
         <v>7</v>
       </c>
       <c r="F219" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -9092,7 +9101,7 @@
         <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -9112,7 +9121,7 @@
         <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -9132,7 +9141,7 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -9172,7 +9181,7 @@
         <v>8</v>
       </c>
       <c r="F224" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -9192,7 +9201,7 @@
         <v>7</v>
       </c>
       <c r="F225" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -9212,7 +9221,7 @@
         <v>5</v>
       </c>
       <c r="F226" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -9232,7 +9241,7 @@
         <v>6</v>
       </c>
       <c r="F227" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -9252,7 +9261,7 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -9292,7 +9301,7 @@
         <v>8</v>
       </c>
       <c r="F230" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -9312,7 +9321,7 @@
         <v>7</v>
       </c>
       <c r="F231" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -9332,7 +9341,7 @@
         <v>5</v>
       </c>
       <c r="F232" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -9352,7 +9361,7 @@
         <v>6</v>
       </c>
       <c r="F233" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -9372,7 +9381,7 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -9412,7 +9421,7 @@
         <v>8</v>
       </c>
       <c r="F236" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -9432,7 +9441,7 @@
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9452,7 +9461,7 @@
         <v>5</v>
       </c>
       <c r="F238" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9472,7 +9481,7 @@
         <v>6</v>
       </c>
       <c r="F239" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9492,7 +9501,7 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9532,7 +9541,7 @@
         <v>8</v>
       </c>
       <c r="F242" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9552,7 +9561,7 @@
         <v>7</v>
       </c>
       <c r="F243" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9572,7 +9581,7 @@
         <v>5</v>
       </c>
       <c r="F244" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9592,7 +9601,7 @@
         <v>6</v>
       </c>
       <c r="F245" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9612,7 +9621,7 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9652,7 +9661,7 @@
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9672,7 +9681,7 @@
         <v>7</v>
       </c>
       <c r="F249" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9692,7 +9701,7 @@
         <v>5</v>
       </c>
       <c r="F250" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9712,7 +9721,7 @@
         <v>6</v>
       </c>
       <c r="F251" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9732,7 +9741,7 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9772,7 +9781,7 @@
         <v>8</v>
       </c>
       <c r="F254" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9792,7 +9801,7 @@
         <v>7</v>
       </c>
       <c r="F255" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9812,7 +9821,7 @@
         <v>5</v>
       </c>
       <c r="F256" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9832,7 +9841,7 @@
         <v>6</v>
       </c>
       <c r="F257" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9852,7 +9861,7 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9892,7 +9901,7 @@
         <v>8</v>
       </c>
       <c r="F260" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9912,7 +9921,7 @@
         <v>7</v>
       </c>
       <c r="F261" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9932,7 +9941,7 @@
         <v>5</v>
       </c>
       <c r="F262" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9952,7 +9961,7 @@
         <v>6</v>
       </c>
       <c r="F263" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9972,7 +9981,7 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -10784,7 +10793,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10817,6 +10826,328 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920031</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920031</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920067</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920067</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920030</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920038</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920046</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21330051920048</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21330051920051</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21330051920054</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21330051920056</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21330051920059</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/1BV - Estadisticos 20211.xlsx
+++ b/grupos/1BV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="184">
   <si>
     <t>Materia</t>
   </si>
@@ -248,96 +248,228 @@
     <t>ARAGON</t>
   </si>
   <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>COMIHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>OREA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>TLAXCALTECALT</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ZETINA</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>CELESTINO</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>LEPE</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>RANGEL</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>JONATHAN YOSEF</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>BETSI JOSELIN</t>
+  </si>
+  <si>
+    <t>GABRIELA ELIZABETH</t>
+  </si>
+  <si>
+    <t>ALEJANDRO GABRIEL</t>
+  </si>
+  <si>
+    <t>CARLA ESTEFANIA</t>
+  </si>
+  <si>
+    <t>ZAYRA</t>
+  </si>
+  <si>
+    <t>KARLA JIMENA</t>
+  </si>
+  <si>
+    <t>LAURA FERNANDA</t>
+  </si>
+  <si>
+    <t>EMMANUEL DAVID</t>
+  </si>
+  <si>
+    <t>ZURY BETZABE</t>
+  </si>
+  <si>
+    <t>MICHEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>DAIRA</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>INGRID CRISTEL</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>DARINKA PAOLA</t>
+  </si>
+  <si>
+    <t>KARLA JAZMIN</t>
+  </si>
+  <si>
+    <t>HANIA ZARETH</t>
+  </si>
+  <si>
+    <t>JOHANA RUBI</t>
+  </si>
+  <si>
+    <t>PAOLA JAZMIN</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
     <t>ANDRADE</t>
   </si>
   <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
     <t>BAUTISTA</t>
   </si>
   <si>
     <t>CASTRO</t>
   </si>
   <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>COMIHUA</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>HERRERA</t>
   </si>
   <si>
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MAYAHUA</t>
   </si>
   <si>
     <t>MENDEZ</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>OREA</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
     <t>PACHECO</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>ROMAN</t>
   </si>
   <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>TLAXCALTECALT</t>
-  </si>
-  <si>
     <t>TETLA</t>
   </si>
   <si>
@@ -347,21 +479,6 @@
     <t>VELAZQUEZ</t>
   </si>
   <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ZETINA</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
     <t>ARIAS</t>
   </si>
   <si>
@@ -371,117 +488,45 @@
     <t>MORENO</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>CELESTINO</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
     <t>MONTIEL</t>
   </si>
   <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
     <t>SIERRA</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>TETLACTLE</t>
   </si>
   <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>LEPE</t>
-  </si>
-  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
     <t>GUEVARA</t>
   </si>
   <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
     <t>ZACARIAS</t>
   </si>
   <si>
-    <t>RANGEL</t>
-  </si>
-  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>JONATHAN YOSEF</t>
-  </si>
-  <si>
     <t>MARISOL</t>
   </si>
   <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
     <t>ALESSANDRA</t>
   </si>
   <si>
-    <t>BETSI JOSELIN</t>
-  </si>
-  <si>
     <t>GUADALUPE JOSELYNE</t>
   </si>
   <si>
     <t>ELIZABETH</t>
   </si>
   <si>
-    <t>GABRIELA ELIZABETH</t>
-  </si>
-  <si>
-    <t>ALEJANDRO GABRIEL</t>
-  </si>
-  <si>
-    <t>CARLA ESTEFANIA</t>
-  </si>
-  <si>
-    <t>ZAYRA</t>
-  </si>
-  <si>
-    <t>KARLA JIMENA</t>
-  </si>
-  <si>
-    <t>LAURA FERNANDA</t>
-  </si>
-  <si>
     <t>ZENON AXXEL</t>
   </si>
   <si>
@@ -491,66 +536,33 @@
     <t>NOHEMI</t>
   </si>
   <si>
-    <t>EMMANUEL DAVID</t>
-  </si>
-  <si>
     <t>ARANZA DANAE</t>
   </si>
   <si>
-    <t>ZURY BETZABE</t>
-  </si>
-  <si>
     <t>MIA ARANZA</t>
   </si>
   <si>
     <t>NUBIA NAHOMI</t>
   </si>
   <si>
-    <t>MICHEL</t>
-  </si>
-  <si>
     <t>OSCAR</t>
   </si>
   <si>
     <t>AMY</t>
   </si>
   <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>DAIRA</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>ANGEL GABRIEL</t>
-  </si>
-  <si>
     <t>MARIEL</t>
   </si>
   <si>
     <t>ANDREA YONETH</t>
   </si>
   <si>
-    <t>INGRID CRISTEL</t>
-  </si>
-  <si>
     <t>MARIANA</t>
   </si>
   <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
     <t>SARAHI</t>
   </si>
   <si>
-    <t>DARINKA PAOLA</t>
-  </si>
-  <si>
-    <t>KARLA JAZMIN</t>
-  </si>
-  <si>
     <t>YAZURI</t>
   </si>
   <si>
@@ -558,18 +570,6 @@
   </si>
   <si>
     <t>XIMENA</t>
-  </si>
-  <si>
-    <t>HANIA ZARETH</t>
-  </si>
-  <si>
-    <t>JOHANA RUBI</t>
-  </si>
-  <si>
-    <t>PAOLA JAZMIN</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1070,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1115,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V4">
         <v>6</v>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -1378,7 +1378,7 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -1432,7 +1432,7 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y8">
         <v>-1</v>
@@ -1917,7 +1917,7 @@
         <v>-1</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -1971,7 +1971,7 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1994,7 +1994,7 @@
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -2048,7 +2048,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -2302,7 +2302,7 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -2356,7 +2356,7 @@
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2447,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -2501,7 +2501,7 @@
         <v>6</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V22">
         <v>6</v>
@@ -2524,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V23">
         <v>6</v>
@@ -2995,7 +2995,7 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -3049,7 +3049,7 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>-1</v>
@@ -3294,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -3348,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V33">
         <v>10</v>
@@ -3534,7 +3534,7 @@
         <v>-1</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -3588,7 +3588,7 @@
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -4506,13 +4506,13 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.91</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4521,10 +4521,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>59.09</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4666,25 +4666,25 @@
         <v>44</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>95.45</v>
+      </c>
+      <c r="G7">
+        <v>4.55</v>
+      </c>
+      <c r="H7">
+        <v>8.1</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>84.09</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="H7">
-        <v>8.5</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>15.91</v>
       </c>
     </row>
   </sheetData>
@@ -4694,7 +4694,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4732,10 +4732,10 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -4752,10 +4752,10 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -4772,10 +4772,10 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -4792,10 +4792,10 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -4812,10 +4812,10 @@
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -4826,216 +4826,216 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920388</v>
+        <v>21330051920030</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920029</v>
+        <v>21330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920029</v>
+        <v>21330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920029</v>
+        <v>21330051920032</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920029</v>
+        <v>21330051920032</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920029</v>
+        <v>21330051920035</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920029</v>
+        <v>21330051920035</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920030</v>
+        <v>21330051920035</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>21330051920030</v>
+        <v>21330051920036</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920030</v>
+        <v>21330051920036</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920030</v>
+        <v>21330051920036</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -5046,16 +5046,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>21330051920030</v>
+        <v>21330051920036</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -5066,76 +5066,76 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920030</v>
+        <v>21330051920037</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920031</v>
+        <v>21330051920037</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920031</v>
+        <v>21330051920037</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920031</v>
+        <v>21330051920038</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -5146,196 +5146,196 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920031</v>
+        <v>21330051920390</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920031</v>
+        <v>21330051920390</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920031</v>
+        <v>21330051920390</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920032</v>
+        <v>21330051920390</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920032</v>
+        <v>21330051920390</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920032</v>
+        <v>21330051920039</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21330051920032</v>
+        <v>21330051920039</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920032</v>
+        <v>21330051920039</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920032</v>
+        <v>21330051920039</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920033</v>
+        <v>21330051920043</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -5346,16 +5346,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920033</v>
+        <v>21330051920043</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -5366,16 +5366,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920033</v>
+        <v>21330051920043</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -5386,16 +5386,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920033</v>
+        <v>21330051920043</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -5406,16 +5406,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920033</v>
+        <v>21330051920043</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -5426,516 +5426,516 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920033</v>
+        <v>21330051920045</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920034</v>
+        <v>21330051920045</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920034</v>
+        <v>21330051920048</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920034</v>
+        <v>21330051920051</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920034</v>
+        <v>21330051920052</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920034</v>
+        <v>21330051920052</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>21330051920034</v>
+        <v>21330051920052</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>21330051920035</v>
+        <v>21330051920052</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>21330051920035</v>
+        <v>21330051920052</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21330051920035</v>
+        <v>21330051920053</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>21330051920035</v>
+        <v>21330051920053</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21330051920035</v>
+        <v>21330051920053</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>21330051920035</v>
+        <v>21330051920053</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>21330051920036</v>
+        <v>21330051920054</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>21330051920036</v>
+        <v>21330051920057</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>21330051920036</v>
+        <v>21330051920057</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>21330051920036</v>
+        <v>21330051920057</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>21330051920036</v>
+        <v>21330051920057</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>21330051920036</v>
+        <v>21330051920057</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>21330051920037</v>
+        <v>21330051920059</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>21330051920037</v>
+        <v>21330051920061</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>21330051920037</v>
+        <v>21330051920061</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>21330051920037</v>
+        <v>21330051920061</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>21330051920037</v>
+        <v>21330051920061</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>21330051920037</v>
+        <v>21330051920061</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>21330051920038</v>
+        <v>21330051920062</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -5946,16 +5946,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>21330051920038</v>
+        <v>21330051920062</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -5966,16 +5966,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>21330051920038</v>
+        <v>21330051920062</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -5986,16 +5986,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>21330051920038</v>
+        <v>21330051920062</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -6006,56 +6006,56 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>21330051920038</v>
+        <v>21330051920067</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>21330051920038</v>
+        <v>21330051920067</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>21330051920390</v>
+        <v>21330051920069</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -6066,16 +6066,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>21330051920390</v>
+        <v>21330051920069</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -6086,16 +6086,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>21330051920390</v>
+        <v>21330051920069</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -6106,16 +6106,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>21330051920390</v>
+        <v>21330051920069</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -6126,16 +6126,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>21330051920390</v>
+        <v>21330051920069</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -6146,3862 +6146,102 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>21330051920390</v>
+        <v>20330051920185</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>21330051920039</v>
+        <v>20330051920185</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>21330051920039</v>
+        <v>21330051920070</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>21330051920039</v>
+        <v>21330051920070</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>21330051920039</v>
+        <v>21330051920070</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>21330051920039</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920039</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920040</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920040</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920040</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920040</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920040</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84" t="s">
-        <v>154</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920040</v>
-      </c>
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" t="s">
-        <v>108</v>
-      </c>
-      <c r="D85" t="s">
-        <v>154</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920041</v>
-      </c>
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" t="s">
-        <v>121</v>
-      </c>
-      <c r="D86" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920041</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920041</v>
-      </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920041</v>
-      </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920041</v>
-      </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920041</v>
-      </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920042</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920042</v>
-      </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" t="s">
-        <v>156</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920042</v>
-      </c>
-      <c r="B94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" t="s">
-        <v>156</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920042</v>
-      </c>
-      <c r="B95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" t="s">
-        <v>156</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920042</v>
-      </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920042</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>21330051920043</v>
-      </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" t="s">
-        <v>157</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>21330051920043</v>
-      </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" t="s">
-        <v>157</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>21330051920043</v>
-      </c>
-      <c r="B100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" t="s">
-        <v>123</v>
-      </c>
-      <c r="D100" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>21330051920043</v>
-      </c>
-      <c r="B101" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" t="s">
-        <v>157</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>21330051920043</v>
-      </c>
-      <c r="B102" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" t="s">
-        <v>123</v>
-      </c>
-      <c r="D102" t="s">
-        <v>157</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>21330051920043</v>
-      </c>
-      <c r="B103" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" t="s">
-        <v>123</v>
-      </c>
-      <c r="D103" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920044</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>124</v>
-      </c>
-      <c r="D104" t="s">
-        <v>158</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920044</v>
-      </c>
-      <c r="B105" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" t="s">
-        <v>124</v>
-      </c>
-      <c r="D105" t="s">
-        <v>158</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920044</v>
-      </c>
-      <c r="B106" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" t="s">
-        <v>158</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920044</v>
-      </c>
-      <c r="B107" t="s">
-        <v>89</v>
-      </c>
-      <c r="C107" t="s">
-        <v>124</v>
-      </c>
-      <c r="D107" t="s">
-        <v>158</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920044</v>
-      </c>
-      <c r="B108" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" t="s">
-        <v>158</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920044</v>
-      </c>
-      <c r="B109" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" t="s">
-        <v>158</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>21330051920045</v>
-      </c>
-      <c r="B110" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" t="s">
-        <v>159</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>21330051920045</v>
-      </c>
-      <c r="B111" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" t="s">
-        <v>125</v>
-      </c>
-      <c r="D111" t="s">
-        <v>159</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>21330051920045</v>
-      </c>
-      <c r="B112" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" t="s">
-        <v>125</v>
-      </c>
-      <c r="D112" t="s">
-        <v>159</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>21330051920045</v>
-      </c>
-      <c r="B113" t="s">
-        <v>89</v>
-      </c>
-      <c r="C113" t="s">
-        <v>125</v>
-      </c>
-      <c r="D113" t="s">
-        <v>159</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>21330051920045</v>
-      </c>
-      <c r="B114" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" t="s">
-        <v>125</v>
-      </c>
-      <c r="D114" t="s">
-        <v>159</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>21330051920045</v>
-      </c>
-      <c r="B115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" t="s">
-        <v>159</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>21330051920046</v>
-      </c>
-      <c r="B116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" t="s">
-        <v>126</v>
-      </c>
-      <c r="D116" t="s">
-        <v>160</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>21330051920046</v>
-      </c>
-      <c r="B117" t="s">
-        <v>90</v>
-      </c>
-      <c r="C117" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" t="s">
-        <v>160</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>21330051920046</v>
-      </c>
-      <c r="B118" t="s">
-        <v>90</v>
-      </c>
-      <c r="C118" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" t="s">
-        <v>160</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>21330051920046</v>
-      </c>
-      <c r="B119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C119" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" t="s">
-        <v>160</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>21330051920046</v>
-      </c>
-      <c r="B120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" t="s">
-        <v>160</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>21330051920046</v>
-      </c>
-      <c r="B121" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>21330051920047</v>
-      </c>
-      <c r="B122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C122" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" t="s">
-        <v>161</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>21330051920047</v>
-      </c>
-      <c r="B123" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" t="s">
-        <v>91</v>
-      </c>
-      <c r="D123" t="s">
-        <v>161</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>21330051920047</v>
-      </c>
-      <c r="B124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" t="s">
-        <v>91</v>
-      </c>
-      <c r="D124" t="s">
-        <v>161</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>21330051920047</v>
-      </c>
-      <c r="B125" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" t="s">
-        <v>91</v>
-      </c>
-      <c r="D125" t="s">
-        <v>161</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>21330051920047</v>
-      </c>
-      <c r="B126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" t="s">
-        <v>161</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>21330051920047</v>
-      </c>
-      <c r="B127" t="s">
-        <v>91</v>
-      </c>
-      <c r="C127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" t="s">
-        <v>161</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>21330051920048</v>
-      </c>
-      <c r="B128" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" t="s">
-        <v>162</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>21330051920048</v>
-      </c>
-      <c r="B129" t="s">
-        <v>92</v>
-      </c>
-      <c r="C129" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" t="s">
-        <v>162</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21330051920048</v>
-      </c>
-      <c r="B130" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" t="s">
-        <v>162</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>21330051920048</v>
-      </c>
-      <c r="B131" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" t="s">
-        <v>127</v>
-      </c>
-      <c r="D131" t="s">
-        <v>162</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>21330051920048</v>
-      </c>
-      <c r="B132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" t="s">
-        <v>127</v>
-      </c>
-      <c r="D132" t="s">
-        <v>162</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>21330051920048</v>
-      </c>
-      <c r="B133" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" t="s">
-        <v>127</v>
-      </c>
-      <c r="D133" t="s">
-        <v>162</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>21330051920050</v>
-      </c>
-      <c r="B134" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" t="s">
-        <v>128</v>
-      </c>
-      <c r="D134" t="s">
-        <v>163</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>21330051920050</v>
-      </c>
-      <c r="B135" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135" t="s">
-        <v>128</v>
-      </c>
-      <c r="D135" t="s">
-        <v>163</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>21330051920050</v>
-      </c>
-      <c r="B136" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" t="s">
-        <v>128</v>
-      </c>
-      <c r="D136" t="s">
-        <v>163</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>21330051920050</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" t="s">
-        <v>128</v>
-      </c>
-      <c r="D137" t="s">
-        <v>163</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>21330051920050</v>
-      </c>
-      <c r="B138" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" t="s">
-        <v>128</v>
-      </c>
-      <c r="D138" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>21330051920050</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" t="s">
-        <v>128</v>
-      </c>
-      <c r="D139" t="s">
-        <v>163</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>21330051920049</v>
-      </c>
-      <c r="B140" t="s">
-        <v>94</v>
-      </c>
-      <c r="C140" t="s">
-        <v>92</v>
-      </c>
-      <c r="D140" t="s">
-        <v>164</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>21330051920049</v>
-      </c>
-      <c r="B141" t="s">
-        <v>94</v>
-      </c>
-      <c r="C141" t="s">
-        <v>92</v>
-      </c>
-      <c r="D141" t="s">
-        <v>164</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>21330051920049</v>
-      </c>
-      <c r="B142" t="s">
-        <v>94</v>
-      </c>
-      <c r="C142" t="s">
-        <v>92</v>
-      </c>
-      <c r="D142" t="s">
-        <v>164</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>21330051920049</v>
-      </c>
-      <c r="B143" t="s">
-        <v>94</v>
-      </c>
-      <c r="C143" t="s">
-        <v>92</v>
-      </c>
-      <c r="D143" t="s">
-        <v>164</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>21330051920049</v>
-      </c>
-      <c r="B144" t="s">
-        <v>94</v>
-      </c>
-      <c r="C144" t="s">
-        <v>92</v>
-      </c>
-      <c r="D144" t="s">
-        <v>164</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>21330051920049</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>92</v>
-      </c>
-      <c r="D145" t="s">
-        <v>164</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>21330051920051</v>
-      </c>
-      <c r="B146" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" t="s">
-        <v>129</v>
-      </c>
-      <c r="D146" t="s">
-        <v>165</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>21330051920051</v>
-      </c>
-      <c r="B147" t="s">
-        <v>95</v>
-      </c>
-      <c r="C147" t="s">
-        <v>129</v>
-      </c>
-      <c r="D147" t="s">
-        <v>165</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>21330051920051</v>
-      </c>
-      <c r="B148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" t="s">
-        <v>129</v>
-      </c>
-      <c r="D148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>21330051920051</v>
-      </c>
-      <c r="B149" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" t="s">
-        <v>129</v>
-      </c>
-      <c r="D149" t="s">
-        <v>165</v>
-      </c>
-      <c r="E149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>21330051920051</v>
-      </c>
-      <c r="B150" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" t="s">
-        <v>129</v>
-      </c>
-      <c r="D150" t="s">
-        <v>165</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>21330051920051</v>
-      </c>
-      <c r="B151" t="s">
-        <v>95</v>
-      </c>
-      <c r="C151" t="s">
-        <v>129</v>
-      </c>
-      <c r="D151" t="s">
-        <v>165</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>21330051920052</v>
-      </c>
-      <c r="B152" t="s">
-        <v>96</v>
-      </c>
-      <c r="C152" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" t="s">
-        <v>166</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>21330051920052</v>
-      </c>
-      <c r="B153" t="s">
-        <v>96</v>
-      </c>
-      <c r="C153" t="s">
-        <v>117</v>
-      </c>
-      <c r="D153" t="s">
-        <v>166</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>21330051920052</v>
-      </c>
-      <c r="B154" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" t="s">
-        <v>117</v>
-      </c>
-      <c r="D154" t="s">
-        <v>166</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>21330051920052</v>
-      </c>
-      <c r="B155" t="s">
-        <v>96</v>
-      </c>
-      <c r="C155" t="s">
-        <v>117</v>
-      </c>
-      <c r="D155" t="s">
-        <v>166</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>21330051920052</v>
-      </c>
-      <c r="B156" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" t="s">
-        <v>117</v>
-      </c>
-      <c r="D156" t="s">
-        <v>166</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>21330051920052</v>
-      </c>
-      <c r="B157" t="s">
-        <v>96</v>
-      </c>
-      <c r="C157" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" t="s">
-        <v>166</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>21330051920053</v>
-      </c>
-      <c r="B158" t="s">
-        <v>97</v>
-      </c>
-      <c r="C158" t="s">
-        <v>92</v>
-      </c>
-      <c r="D158" t="s">
-        <v>167</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>21330051920053</v>
-      </c>
-      <c r="B159" t="s">
-        <v>97</v>
-      </c>
-      <c r="C159" t="s">
-        <v>92</v>
-      </c>
-      <c r="D159" t="s">
-        <v>167</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>21330051920053</v>
-      </c>
-      <c r="B160" t="s">
-        <v>97</v>
-      </c>
-      <c r="C160" t="s">
-        <v>92</v>
-      </c>
-      <c r="D160" t="s">
-        <v>167</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>21330051920053</v>
-      </c>
-      <c r="B161" t="s">
-        <v>97</v>
-      </c>
-      <c r="C161" t="s">
-        <v>92</v>
-      </c>
-      <c r="D161" t="s">
-        <v>167</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>21330051920053</v>
-      </c>
-      <c r="B162" t="s">
-        <v>97</v>
-      </c>
-      <c r="C162" t="s">
-        <v>92</v>
-      </c>
-      <c r="D162" t="s">
-        <v>167</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>21330051920053</v>
-      </c>
-      <c r="B163" t="s">
-        <v>97</v>
-      </c>
-      <c r="C163" t="s">
-        <v>92</v>
-      </c>
-      <c r="D163" t="s">
-        <v>167</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>21330051920054</v>
-      </c>
-      <c r="B164" t="s">
-        <v>98</v>
-      </c>
-      <c r="C164" t="s">
-        <v>130</v>
-      </c>
-      <c r="D164" t="s">
-        <v>168</v>
-      </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>21330051920054</v>
-      </c>
-      <c r="B165" t="s">
-        <v>98</v>
-      </c>
-      <c r="C165" t="s">
-        <v>130</v>
-      </c>
-      <c r="D165" t="s">
-        <v>168</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>21330051920054</v>
-      </c>
-      <c r="B166" t="s">
-        <v>98</v>
-      </c>
-      <c r="C166" t="s">
-        <v>130</v>
-      </c>
-      <c r="D166" t="s">
-        <v>168</v>
-      </c>
-      <c r="E166" t="s">
-        <v>5</v>
-      </c>
-      <c r="F166" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>21330051920054</v>
-      </c>
-      <c r="B167" t="s">
-        <v>98</v>
-      </c>
-      <c r="C167" t="s">
-        <v>130</v>
-      </c>
-      <c r="D167" t="s">
-        <v>168</v>
-      </c>
-      <c r="E167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>21330051920054</v>
-      </c>
-      <c r="B168" t="s">
-        <v>98</v>
-      </c>
-      <c r="C168" t="s">
-        <v>130</v>
-      </c>
-      <c r="D168" t="s">
-        <v>168</v>
-      </c>
-      <c r="E168" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>21330051920054</v>
-      </c>
-      <c r="B169" t="s">
-        <v>98</v>
-      </c>
-      <c r="C169" t="s">
-        <v>130</v>
-      </c>
-      <c r="D169" t="s">
-        <v>168</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>21330051920055</v>
-      </c>
-      <c r="B170" t="s">
-        <v>99</v>
-      </c>
-      <c r="C170" t="s">
-        <v>131</v>
-      </c>
-      <c r="D170" t="s">
-        <v>169</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>21330051920055</v>
-      </c>
-      <c r="B171" t="s">
-        <v>99</v>
-      </c>
-      <c r="C171" t="s">
-        <v>131</v>
-      </c>
-      <c r="D171" t="s">
-        <v>169</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>21330051920055</v>
-      </c>
-      <c r="B172" t="s">
-        <v>99</v>
-      </c>
-      <c r="C172" t="s">
-        <v>131</v>
-      </c>
-      <c r="D172" t="s">
-        <v>169</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>21330051920055</v>
-      </c>
-      <c r="B173" t="s">
-        <v>99</v>
-      </c>
-      <c r="C173" t="s">
-        <v>131</v>
-      </c>
-      <c r="D173" t="s">
-        <v>169</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>21330051920055</v>
-      </c>
-      <c r="B174" t="s">
-        <v>99</v>
-      </c>
-      <c r="C174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D174" t="s">
-        <v>169</v>
-      </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>21330051920055</v>
-      </c>
-      <c r="B175" t="s">
-        <v>99</v>
-      </c>
-      <c r="C175" t="s">
-        <v>131</v>
-      </c>
-      <c r="D175" t="s">
-        <v>169</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>21330051920056</v>
-      </c>
-      <c r="B176" t="s">
-        <v>100</v>
-      </c>
-      <c r="C176" t="s">
-        <v>132</v>
-      </c>
-      <c r="D176" t="s">
-        <v>170</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>21330051920056</v>
-      </c>
-      <c r="B177" t="s">
-        <v>100</v>
-      </c>
-      <c r="C177" t="s">
-        <v>132</v>
-      </c>
-      <c r="D177" t="s">
-        <v>170</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>21330051920056</v>
-      </c>
-      <c r="B178" t="s">
-        <v>100</v>
-      </c>
-      <c r="C178" t="s">
-        <v>132</v>
-      </c>
-      <c r="D178" t="s">
-        <v>170</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>21330051920056</v>
-      </c>
-      <c r="B179" t="s">
-        <v>100</v>
-      </c>
-      <c r="C179" t="s">
-        <v>132</v>
-      </c>
-      <c r="D179" t="s">
-        <v>170</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>21330051920056</v>
-      </c>
-      <c r="B180" t="s">
-        <v>100</v>
-      </c>
-      <c r="C180" t="s">
-        <v>132</v>
-      </c>
-      <c r="D180" t="s">
-        <v>170</v>
-      </c>
-      <c r="E180" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>21330051920056</v>
-      </c>
-      <c r="B181" t="s">
-        <v>100</v>
-      </c>
-      <c r="C181" t="s">
-        <v>132</v>
-      </c>
-      <c r="D181" t="s">
-        <v>170</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>21330051920057</v>
-      </c>
-      <c r="B182" t="s">
-        <v>101</v>
-      </c>
-      <c r="C182" t="s">
-        <v>89</v>
-      </c>
-      <c r="D182" t="s">
-        <v>171</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>21330051920057</v>
-      </c>
-      <c r="B183" t="s">
-        <v>101</v>
-      </c>
-      <c r="C183" t="s">
-        <v>89</v>
-      </c>
-      <c r="D183" t="s">
-        <v>171</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>21330051920057</v>
-      </c>
-      <c r="B184" t="s">
-        <v>101</v>
-      </c>
-      <c r="C184" t="s">
-        <v>89</v>
-      </c>
-      <c r="D184" t="s">
-        <v>171</v>
-      </c>
-      <c r="E184" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>21330051920057</v>
-      </c>
-      <c r="B185" t="s">
-        <v>101</v>
-      </c>
-      <c r="C185" t="s">
-        <v>89</v>
-      </c>
-      <c r="D185" t="s">
-        <v>171</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>21330051920057</v>
-      </c>
-      <c r="B186" t="s">
-        <v>101</v>
-      </c>
-      <c r="C186" t="s">
-        <v>89</v>
-      </c>
-      <c r="D186" t="s">
-        <v>171</v>
-      </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>21330051920057</v>
-      </c>
-      <c r="B187" t="s">
-        <v>101</v>
-      </c>
-      <c r="C187" t="s">
-        <v>89</v>
-      </c>
-      <c r="D187" t="s">
-        <v>171</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>21330051920058</v>
-      </c>
-      <c r="B188" t="s">
-        <v>102</v>
-      </c>
-      <c r="C188" t="s">
-        <v>89</v>
-      </c>
-      <c r="D188" t="s">
-        <v>172</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>21330051920058</v>
-      </c>
-      <c r="B189" t="s">
-        <v>102</v>
-      </c>
-      <c r="C189" t="s">
-        <v>89</v>
-      </c>
-      <c r="D189" t="s">
-        <v>172</v>
-      </c>
-      <c r="E189" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>21330051920058</v>
-      </c>
-      <c r="B190" t="s">
-        <v>102</v>
-      </c>
-      <c r="C190" t="s">
-        <v>89</v>
-      </c>
-      <c r="D190" t="s">
-        <v>172</v>
-      </c>
-      <c r="E190" t="s">
-        <v>5</v>
-      </c>
-      <c r="F190" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>21330051920058</v>
-      </c>
-      <c r="B191" t="s">
-        <v>102</v>
-      </c>
-      <c r="C191" t="s">
-        <v>89</v>
-      </c>
-      <c r="D191" t="s">
-        <v>172</v>
-      </c>
-      <c r="E191" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>21330051920058</v>
-      </c>
-      <c r="B192" t="s">
-        <v>102</v>
-      </c>
-      <c r="C192" t="s">
-        <v>89</v>
-      </c>
-      <c r="D192" t="s">
-        <v>172</v>
-      </c>
-      <c r="E192" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>21330051920058</v>
-      </c>
-      <c r="B193" t="s">
-        <v>102</v>
-      </c>
-      <c r="C193" t="s">
-        <v>89</v>
-      </c>
-      <c r="D193" t="s">
-        <v>172</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>21330051920059</v>
-      </c>
-      <c r="B194" t="s">
-        <v>103</v>
-      </c>
-      <c r="C194" t="s">
-        <v>133</v>
-      </c>
-      <c r="D194" t="s">
-        <v>173</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>21330051920059</v>
-      </c>
-      <c r="B195" t="s">
-        <v>103</v>
-      </c>
-      <c r="C195" t="s">
-        <v>133</v>
-      </c>
-      <c r="D195" t="s">
-        <v>173</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>21330051920059</v>
-      </c>
-      <c r="B196" t="s">
-        <v>103</v>
-      </c>
-      <c r="C196" t="s">
-        <v>133</v>
-      </c>
-      <c r="D196" t="s">
-        <v>173</v>
-      </c>
-      <c r="E196" t="s">
-        <v>5</v>
-      </c>
-      <c r="F196" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>21330051920059</v>
-      </c>
-      <c r="B197" t="s">
-        <v>103</v>
-      </c>
-      <c r="C197" t="s">
-        <v>133</v>
-      </c>
-      <c r="D197" t="s">
-        <v>173</v>
-      </c>
-      <c r="E197" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>21330051920059</v>
-      </c>
-      <c r="B198" t="s">
-        <v>103</v>
-      </c>
-      <c r="C198" t="s">
-        <v>133</v>
-      </c>
-      <c r="D198" t="s">
-        <v>173</v>
-      </c>
-      <c r="E198" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>21330051920059</v>
-      </c>
-      <c r="B199" t="s">
-        <v>103</v>
-      </c>
-      <c r="C199" t="s">
-        <v>133</v>
-      </c>
-      <c r="D199" t="s">
-        <v>173</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>21330051920060</v>
-      </c>
-      <c r="B200" t="s">
-        <v>101</v>
-      </c>
-      <c r="C200" t="s">
-        <v>134</v>
-      </c>
-      <c r="D200" t="s">
-        <v>174</v>
-      </c>
-      <c r="E200" t="s">
-        <v>8</v>
-      </c>
-      <c r="F200" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>21330051920060</v>
-      </c>
-      <c r="B201" t="s">
-        <v>101</v>
-      </c>
-      <c r="C201" t="s">
-        <v>134</v>
-      </c>
-      <c r="D201" t="s">
-        <v>174</v>
-      </c>
-      <c r="E201" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>21330051920060</v>
-      </c>
-      <c r="B202" t="s">
-        <v>101</v>
-      </c>
-      <c r="C202" t="s">
-        <v>134</v>
-      </c>
-      <c r="D202" t="s">
-        <v>174</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>21330051920060</v>
-      </c>
-      <c r="B203" t="s">
-        <v>101</v>
-      </c>
-      <c r="C203" t="s">
-        <v>134</v>
-      </c>
-      <c r="D203" t="s">
-        <v>174</v>
-      </c>
-      <c r="E203" t="s">
-        <v>6</v>
-      </c>
-      <c r="F203" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>21330051920060</v>
-      </c>
-      <c r="B204" t="s">
-        <v>101</v>
-      </c>
-      <c r="C204" t="s">
-        <v>134</v>
-      </c>
-      <c r="D204" t="s">
-        <v>174</v>
-      </c>
-      <c r="E204" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>21330051920060</v>
-      </c>
-      <c r="B205" t="s">
-        <v>101</v>
-      </c>
-      <c r="C205" t="s">
-        <v>134</v>
-      </c>
-      <c r="D205" t="s">
-        <v>174</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>21330051920061</v>
-      </c>
-      <c r="B206" t="s">
-        <v>104</v>
-      </c>
-      <c r="C206" t="s">
-        <v>135</v>
-      </c>
-      <c r="D206" t="s">
-        <v>175</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>21330051920061</v>
-      </c>
-      <c r="B207" t="s">
-        <v>104</v>
-      </c>
-      <c r="C207" t="s">
-        <v>135</v>
-      </c>
-      <c r="D207" t="s">
-        <v>175</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>21330051920061</v>
-      </c>
-      <c r="B208" t="s">
-        <v>104</v>
-      </c>
-      <c r="C208" t="s">
-        <v>135</v>
-      </c>
-      <c r="D208" t="s">
-        <v>175</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>21330051920061</v>
-      </c>
-      <c r="B209" t="s">
-        <v>104</v>
-      </c>
-      <c r="C209" t="s">
-        <v>135</v>
-      </c>
-      <c r="D209" t="s">
-        <v>175</v>
-      </c>
-      <c r="E209" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>21330051920061</v>
-      </c>
-      <c r="B210" t="s">
-        <v>104</v>
-      </c>
-      <c r="C210" t="s">
-        <v>135</v>
-      </c>
-      <c r="D210" t="s">
-        <v>175</v>
-      </c>
-      <c r="E210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>21330051920061</v>
-      </c>
-      <c r="B211" t="s">
-        <v>104</v>
-      </c>
-      <c r="C211" t="s">
-        <v>135</v>
-      </c>
-      <c r="D211" t="s">
-        <v>175</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>21330051920062</v>
-      </c>
-      <c r="B212" t="s">
-        <v>105</v>
-      </c>
-      <c r="C212" t="s">
-        <v>101</v>
-      </c>
-      <c r="D212" t="s">
-        <v>176</v>
-      </c>
-      <c r="E212" t="s">
-        <v>8</v>
-      </c>
-      <c r="F212" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>21330051920062</v>
-      </c>
-      <c r="B213" t="s">
-        <v>105</v>
-      </c>
-      <c r="C213" t="s">
-        <v>101</v>
-      </c>
-      <c r="D213" t="s">
-        <v>176</v>
-      </c>
-      <c r="E213" t="s">
-        <v>7</v>
-      </c>
-      <c r="F213" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>21330051920062</v>
-      </c>
-      <c r="B214" t="s">
-        <v>105</v>
-      </c>
-      <c r="C214" t="s">
-        <v>101</v>
-      </c>
-      <c r="D214" t="s">
-        <v>176</v>
-      </c>
-      <c r="E214" t="s">
-        <v>5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>21330051920062</v>
-      </c>
-      <c r="B215" t="s">
-        <v>105</v>
-      </c>
-      <c r="C215" t="s">
-        <v>101</v>
-      </c>
-      <c r="D215" t="s">
-        <v>176</v>
-      </c>
-      <c r="E215" t="s">
-        <v>6</v>
-      </c>
-      <c r="F215" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>21330051920062</v>
-      </c>
-      <c r="B216" t="s">
-        <v>105</v>
-      </c>
-      <c r="C216" t="s">
-        <v>101</v>
-      </c>
-      <c r="D216" t="s">
-        <v>176</v>
-      </c>
-      <c r="E216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>21330051920062</v>
-      </c>
-      <c r="B217" t="s">
-        <v>105</v>
-      </c>
-      <c r="C217" t="s">
-        <v>101</v>
-      </c>
-      <c r="D217" t="s">
-        <v>176</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>21330051920063</v>
-      </c>
-      <c r="B218" t="s">
-        <v>106</v>
-      </c>
-      <c r="C218" t="s">
-        <v>136</v>
-      </c>
-      <c r="D218" t="s">
-        <v>177</v>
-      </c>
-      <c r="E218" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>21330051920063</v>
-      </c>
-      <c r="B219" t="s">
-        <v>106</v>
-      </c>
-      <c r="C219" t="s">
-        <v>136</v>
-      </c>
-      <c r="D219" t="s">
-        <v>177</v>
-      </c>
-      <c r="E219" t="s">
-        <v>7</v>
-      </c>
-      <c r="F219" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>21330051920063</v>
-      </c>
-      <c r="B220" t="s">
-        <v>106</v>
-      </c>
-      <c r="C220" t="s">
-        <v>136</v>
-      </c>
-      <c r="D220" t="s">
-        <v>177</v>
-      </c>
-      <c r="E220" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>21330051920063</v>
-      </c>
-      <c r="B221" t="s">
-        <v>106</v>
-      </c>
-      <c r="C221" t="s">
-        <v>136</v>
-      </c>
-      <c r="D221" t="s">
-        <v>177</v>
-      </c>
-      <c r="E221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>21330051920063</v>
-      </c>
-      <c r="B222" t="s">
-        <v>106</v>
-      </c>
-      <c r="C222" t="s">
-        <v>136</v>
-      </c>
-      <c r="D222" t="s">
-        <v>177</v>
-      </c>
-      <c r="E222" t="s">
-        <v>10</v>
-      </c>
-      <c r="F222" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>21330051920063</v>
-      </c>
-      <c r="B223" t="s">
-        <v>106</v>
-      </c>
-      <c r="C223" t="s">
-        <v>136</v>
-      </c>
-      <c r="D223" t="s">
-        <v>177</v>
-      </c>
-      <c r="E223" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>21330051920064</v>
-      </c>
-      <c r="B224" t="s">
-        <v>107</v>
-      </c>
-      <c r="C224" t="s">
-        <v>86</v>
-      </c>
-      <c r="D224" t="s">
-        <v>178</v>
-      </c>
-      <c r="E224" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>21330051920064</v>
-      </c>
-      <c r="B225" t="s">
-        <v>107</v>
-      </c>
-      <c r="C225" t="s">
-        <v>86</v>
-      </c>
-      <c r="D225" t="s">
-        <v>178</v>
-      </c>
-      <c r="E225" t="s">
-        <v>7</v>
-      </c>
-      <c r="F225" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>21330051920064</v>
-      </c>
-      <c r="B226" t="s">
-        <v>107</v>
-      </c>
-      <c r="C226" t="s">
-        <v>86</v>
-      </c>
-      <c r="D226" t="s">
-        <v>178</v>
-      </c>
-      <c r="E226" t="s">
-        <v>5</v>
-      </c>
-      <c r="F226" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>21330051920064</v>
-      </c>
-      <c r="B227" t="s">
-        <v>107</v>
-      </c>
-      <c r="C227" t="s">
-        <v>86</v>
-      </c>
-      <c r="D227" t="s">
-        <v>178</v>
-      </c>
-      <c r="E227" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>21330051920064</v>
-      </c>
-      <c r="B228" t="s">
-        <v>107</v>
-      </c>
-      <c r="C228" t="s">
-        <v>86</v>
-      </c>
-      <c r="D228" t="s">
-        <v>178</v>
-      </c>
-      <c r="E228" t="s">
-        <v>10</v>
-      </c>
-      <c r="F228" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>21330051920064</v>
-      </c>
-      <c r="B229" t="s">
-        <v>107</v>
-      </c>
-      <c r="C229" t="s">
-        <v>86</v>
-      </c>
-      <c r="D229" t="s">
-        <v>178</v>
-      </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230">
-        <v>21330051920065</v>
-      </c>
-      <c r="B230" t="s">
-        <v>108</v>
-      </c>
-      <c r="C230" t="s">
-        <v>125</v>
-      </c>
-      <c r="D230" t="s">
-        <v>179</v>
-      </c>
-      <c r="E230" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231">
-        <v>21330051920065</v>
-      </c>
-      <c r="B231" t="s">
-        <v>108</v>
-      </c>
-      <c r="C231" t="s">
-        <v>125</v>
-      </c>
-      <c r="D231" t="s">
-        <v>179</v>
-      </c>
-      <c r="E231" t="s">
-        <v>7</v>
-      </c>
-      <c r="F231" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
-        <v>21330051920065</v>
-      </c>
-      <c r="B232" t="s">
-        <v>108</v>
-      </c>
-      <c r="C232" t="s">
-        <v>125</v>
-      </c>
-      <c r="D232" t="s">
-        <v>179</v>
-      </c>
-      <c r="E232" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
-        <v>21330051920065</v>
-      </c>
-      <c r="B233" t="s">
-        <v>108</v>
-      </c>
-      <c r="C233" t="s">
-        <v>125</v>
-      </c>
-      <c r="D233" t="s">
-        <v>179</v>
-      </c>
-      <c r="E233" t="s">
-        <v>6</v>
-      </c>
-      <c r="F233" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
-        <v>21330051920065</v>
-      </c>
-      <c r="B234" t="s">
-        <v>108</v>
-      </c>
-      <c r="C234" t="s">
-        <v>125</v>
-      </c>
-      <c r="D234" t="s">
-        <v>179</v>
-      </c>
-      <c r="E234" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
-        <v>21330051920065</v>
-      </c>
-      <c r="B235" t="s">
-        <v>108</v>
-      </c>
-      <c r="C235" t="s">
-        <v>125</v>
-      </c>
-      <c r="D235" t="s">
-        <v>179</v>
-      </c>
-      <c r="E235" t="s">
-        <v>9</v>
-      </c>
-      <c r="F235" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
-        <v>21330051920066</v>
-      </c>
-      <c r="B236" t="s">
-        <v>108</v>
-      </c>
-      <c r="C236" t="s">
-        <v>137</v>
-      </c>
-      <c r="D236" t="s">
-        <v>173</v>
-      </c>
-      <c r="E236" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>21330051920066</v>
-      </c>
-      <c r="B237" t="s">
-        <v>108</v>
-      </c>
-      <c r="C237" t="s">
-        <v>137</v>
-      </c>
-      <c r="D237" t="s">
-        <v>173</v>
-      </c>
-      <c r="E237" t="s">
-        <v>7</v>
-      </c>
-      <c r="F237" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
-        <v>21330051920066</v>
-      </c>
-      <c r="B238" t="s">
-        <v>108</v>
-      </c>
-      <c r="C238" t="s">
-        <v>137</v>
-      </c>
-      <c r="D238" t="s">
-        <v>173</v>
-      </c>
-      <c r="E238" t="s">
-        <v>5</v>
-      </c>
-      <c r="F238" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239">
-        <v>21330051920066</v>
-      </c>
-      <c r="B239" t="s">
-        <v>108</v>
-      </c>
-      <c r="C239" t="s">
-        <v>137</v>
-      </c>
-      <c r="D239" t="s">
-        <v>173</v>
-      </c>
-      <c r="E239" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>21330051920066</v>
-      </c>
-      <c r="B240" t="s">
-        <v>108</v>
-      </c>
-      <c r="C240" t="s">
-        <v>137</v>
-      </c>
-      <c r="D240" t="s">
-        <v>173</v>
-      </c>
-      <c r="E240" t="s">
-        <v>10</v>
-      </c>
-      <c r="F240" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>21330051920066</v>
-      </c>
-      <c r="B241" t="s">
-        <v>108</v>
-      </c>
-      <c r="C241" t="s">
-        <v>137</v>
-      </c>
-      <c r="D241" t="s">
-        <v>173</v>
-      </c>
-      <c r="E241" t="s">
-        <v>9</v>
-      </c>
-      <c r="F241" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242">
-        <v>21330051920067</v>
-      </c>
-      <c r="B242" t="s">
-        <v>109</v>
-      </c>
-      <c r="C242" t="s">
-        <v>138</v>
-      </c>
-      <c r="D242" t="s">
-        <v>180</v>
-      </c>
-      <c r="E242" t="s">
-        <v>8</v>
-      </c>
-      <c r="F242" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243">
-        <v>21330051920067</v>
-      </c>
-      <c r="B243" t="s">
-        <v>109</v>
-      </c>
-      <c r="C243" t="s">
-        <v>138</v>
-      </c>
-      <c r="D243" t="s">
-        <v>180</v>
-      </c>
-      <c r="E243" t="s">
-        <v>7</v>
-      </c>
-      <c r="F243" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
-        <v>21330051920067</v>
-      </c>
-      <c r="B244" t="s">
-        <v>109</v>
-      </c>
-      <c r="C244" t="s">
-        <v>138</v>
-      </c>
-      <c r="D244" t="s">
-        <v>180</v>
-      </c>
-      <c r="E244" t="s">
-        <v>5</v>
-      </c>
-      <c r="F244" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245">
-        <v>21330051920067</v>
-      </c>
-      <c r="B245" t="s">
-        <v>109</v>
-      </c>
-      <c r="C245" t="s">
-        <v>138</v>
-      </c>
-      <c r="D245" t="s">
-        <v>180</v>
-      </c>
-      <c r="E245" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246">
-        <v>21330051920067</v>
-      </c>
-      <c r="B246" t="s">
-        <v>109</v>
-      </c>
-      <c r="C246" t="s">
-        <v>138</v>
-      </c>
-      <c r="D246" t="s">
-        <v>180</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
-      </c>
-      <c r="F246" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>21330051920067</v>
-      </c>
-      <c r="B247" t="s">
-        <v>109</v>
-      </c>
-      <c r="C247" t="s">
-        <v>138</v>
-      </c>
-      <c r="D247" t="s">
-        <v>180</v>
-      </c>
-      <c r="E247" t="s">
-        <v>9</v>
-      </c>
-      <c r="F247" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248">
-        <v>21330051920069</v>
-      </c>
-      <c r="B248" t="s">
-        <v>110</v>
-      </c>
-      <c r="C248" t="s">
-        <v>100</v>
-      </c>
-      <c r="D248" t="s">
-        <v>181</v>
-      </c>
-      <c r="E248" t="s">
-        <v>8</v>
-      </c>
-      <c r="F248" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>21330051920069</v>
-      </c>
-      <c r="B249" t="s">
-        <v>110</v>
-      </c>
-      <c r="C249" t="s">
-        <v>100</v>
-      </c>
-      <c r="D249" t="s">
-        <v>181</v>
-      </c>
-      <c r="E249" t="s">
-        <v>7</v>
-      </c>
-      <c r="F249" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250">
-        <v>21330051920069</v>
-      </c>
-      <c r="B250" t="s">
-        <v>110</v>
-      </c>
-      <c r="C250" t="s">
-        <v>100</v>
-      </c>
-      <c r="D250" t="s">
-        <v>181</v>
-      </c>
-      <c r="E250" t="s">
-        <v>5</v>
-      </c>
-      <c r="F250" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251">
-        <v>21330051920069</v>
-      </c>
-      <c r="B251" t="s">
-        <v>110</v>
-      </c>
-      <c r="C251" t="s">
-        <v>100</v>
-      </c>
-      <c r="D251" t="s">
-        <v>181</v>
-      </c>
-      <c r="E251" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252">
-        <v>21330051920069</v>
-      </c>
-      <c r="B252" t="s">
-        <v>110</v>
-      </c>
-      <c r="C252" t="s">
-        <v>100</v>
-      </c>
-      <c r="D252" t="s">
-        <v>181</v>
-      </c>
-      <c r="E252" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253">
-        <v>21330051920069</v>
-      </c>
-      <c r="B253" t="s">
-        <v>110</v>
-      </c>
-      <c r="C253" t="s">
-        <v>100</v>
-      </c>
-      <c r="D253" t="s">
-        <v>181</v>
-      </c>
-      <c r="E253" t="s">
-        <v>9</v>
-      </c>
-      <c r="F253" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254">
-        <v>20330051920185</v>
-      </c>
-      <c r="B254" t="s">
-        <v>111</v>
-      </c>
-      <c r="C254" t="s">
-        <v>139</v>
-      </c>
-      <c r="D254" t="s">
-        <v>182</v>
-      </c>
-      <c r="E254" t="s">
-        <v>8</v>
-      </c>
-      <c r="F254" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255">
-        <v>20330051920185</v>
-      </c>
-      <c r="B255" t="s">
-        <v>111</v>
-      </c>
-      <c r="C255" t="s">
-        <v>139</v>
-      </c>
-      <c r="D255" t="s">
-        <v>182</v>
-      </c>
-      <c r="E255" t="s">
-        <v>7</v>
-      </c>
-      <c r="F255" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256">
-        <v>20330051920185</v>
-      </c>
-      <c r="B256" t="s">
-        <v>111</v>
-      </c>
-      <c r="C256" t="s">
-        <v>139</v>
-      </c>
-      <c r="D256" t="s">
-        <v>182</v>
-      </c>
-      <c r="E256" t="s">
-        <v>5</v>
-      </c>
-      <c r="F256" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257">
-        <v>20330051920185</v>
-      </c>
-      <c r="B257" t="s">
-        <v>111</v>
-      </c>
-      <c r="C257" t="s">
-        <v>139</v>
-      </c>
-      <c r="D257" t="s">
-        <v>182</v>
-      </c>
-      <c r="E257" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258">
-        <v>20330051920185</v>
-      </c>
-      <c r="B258" t="s">
-        <v>111</v>
-      </c>
-      <c r="C258" t="s">
-        <v>139</v>
-      </c>
-      <c r="D258" t="s">
-        <v>182</v>
-      </c>
-      <c r="E258" t="s">
-        <v>10</v>
-      </c>
-      <c r="F258" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259">
-        <v>20330051920185</v>
-      </c>
-      <c r="B259" t="s">
-        <v>111</v>
-      </c>
-      <c r="C259" t="s">
-        <v>139</v>
-      </c>
-      <c r="D259" t="s">
-        <v>182</v>
-      </c>
-      <c r="E259" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260">
-        <v>21330051920070</v>
-      </c>
-      <c r="B260" t="s">
-        <v>112</v>
-      </c>
-      <c r="C260" t="s">
-        <v>140</v>
-      </c>
-      <c r="D260" t="s">
-        <v>183</v>
-      </c>
-      <c r="E260" t="s">
-        <v>8</v>
-      </c>
-      <c r="F260" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261">
-        <v>21330051920070</v>
-      </c>
-      <c r="B261" t="s">
-        <v>112</v>
-      </c>
-      <c r="C261" t="s">
-        <v>140</v>
-      </c>
-      <c r="D261" t="s">
-        <v>183</v>
-      </c>
-      <c r="E261" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262">
-        <v>21330051920070</v>
-      </c>
-      <c r="B262" t="s">
-        <v>112</v>
-      </c>
-      <c r="C262" t="s">
-        <v>140</v>
-      </c>
-      <c r="D262" t="s">
-        <v>183</v>
-      </c>
-      <c r="E262" t="s">
-        <v>5</v>
-      </c>
-      <c r="F262" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263">
-        <v>21330051920070</v>
-      </c>
-      <c r="B263" t="s">
-        <v>112</v>
-      </c>
-      <c r="C263" t="s">
-        <v>140</v>
-      </c>
-      <c r="D263" t="s">
-        <v>183</v>
-      </c>
-      <c r="E263" t="s">
-        <v>6</v>
-      </c>
-      <c r="F263" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264">
-        <v>21330051920070</v>
-      </c>
-      <c r="B264" t="s">
-        <v>112</v>
-      </c>
-      <c r="C264" t="s">
-        <v>140</v>
-      </c>
-      <c r="D264" t="s">
-        <v>183</v>
-      </c>
-      <c r="E264" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265">
-        <v>21330051920070</v>
-      </c>
-      <c r="B265" t="s">
-        <v>112</v>
-      </c>
-      <c r="C265" t="s">
-        <v>140</v>
-      </c>
-      <c r="D265" t="s">
-        <v>183</v>
-      </c>
-      <c r="E265" t="s">
-        <v>9</v>
-      </c>
-      <c r="F265" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -10046,132 +6286,132 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>21330051920029</v>
+        <v>21330051920390</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920030</v>
+        <v>21330051920043</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920031</v>
+        <v>21330051920052</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920032</v>
+        <v>21330051920057</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920033</v>
+        <v>21330051920061</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920034</v>
+        <v>21330051920069</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920035</v>
+        <v>21330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10179,611 +6419,611 @@
         <v>21330051920036</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920037</v>
+        <v>21330051920039</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920038</v>
+        <v>21330051920053</v>
       </c>
       <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920390</v>
+        <v>21330051920062</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920039</v>
+        <v>21330051920035</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920040</v>
+        <v>21330051920037</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920041</v>
+        <v>21330051920070</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920042</v>
+        <v>21330051920045</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920043</v>
+        <v>21330051920067</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920044</v>
+        <v>20330051920185</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920045</v>
+        <v>21330051920030</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920046</v>
+        <v>21330051920038</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920047</v>
+        <v>21330051920048</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920048</v>
+        <v>21330051920051</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
         <v>127</v>
       </c>
-      <c r="D23" t="s">
-        <v>162</v>
-      </c>
       <c r="E23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920050</v>
+        <v>21330051920054</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21330051920049</v>
+        <v>21330051920059</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21330051920051</v>
+        <v>21330051920029</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>165</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21330051920052</v>
+        <v>21330051920031</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920053</v>
+        <v>21330051920033</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
         <v>167</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920054</v>
+        <v>21330051920034</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
         <v>168</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21330051920055</v>
+        <v>21330051920040</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
         <v>169</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21330051920056</v>
+        <v>21330051920041</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>170</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21330051920057</v>
+        <v>21330051920042</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
         <v>171</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21330051920058</v>
+        <v>21330051920044</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
         <v>172</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>21330051920059</v>
+        <v>21330051920046</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
         <v>173</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21330051920060</v>
+        <v>21330051920047</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
         <v>174</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21330051920061</v>
+        <v>21330051920050</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
         <v>175</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21330051920062</v>
+        <v>21330051920049</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
         <v>176</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21330051920063</v>
+        <v>21330051920055</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
         <v>177</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21330051920064</v>
+        <v>21330051920056</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
         <v>178</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21330051920065</v>
+        <v>21330051920058</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>179</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>21330051920066</v>
+        <v>21330051920060</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>21330051920067</v>
+        <v>21330051920063</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>21330051920069</v>
+        <v>21330051920064</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>20330051920185</v>
+        <v>21330051920065</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>21330051920070</v>
+        <v>21330051920066</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10793,7 +7033,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10828,22 +7068,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920031</v>
+        <v>21330051920045</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -10851,22 +7091,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920031</v>
+        <v>21330051920045</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -10877,13 +7117,13 @@
         <v>21330051920067</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -10900,13 +7140,13 @@
         <v>21330051920067</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -10923,13 +7163,13 @@
         <v>20330051920185</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -10946,13 +7186,13 @@
         <v>20330051920185</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -10969,13 +7209,13 @@
         <v>21330051920030</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -10992,13 +7232,13 @@
         <v>21330051920038</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -11012,16 +7252,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920046</v>
+        <v>21330051920048</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>160</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -11035,16 +7275,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920048</v>
+        <v>21330051920051</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
         <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>162</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -11058,16 +7298,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920051</v>
+        <v>21330051920054</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -11081,16 +7321,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920054</v>
+        <v>21330051920059</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -11099,52 +7339,6 @@
         <v>65</v>
       </c>
       <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>21330051920056</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21330051920059</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15">
         <v>-1</v>
       </c>
     </row>
